--- a/config/optimization_engine/config_optimization/MapProcessMLmodels.xlsx
+++ b/config/optimization_engine/config_optimization/MapProcessMLmodels.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-mi-repo\Gurobi-ML-tips-modeling\config\optimization_engine\config_optimization\mapear leigo boprrar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-mi-repo\Gurobi-ML-tips-modeling\config\optimization_engine\config_optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="17640" windowHeight="4710"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="17640" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>PR_B</t>
   </si>
   <si>
-    <t>PR_B_2</t>
-  </si>
-  <si>
     <t>Z1</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>O7</t>
+  </si>
+  <si>
+    <t>PR_B_Y2</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,16 +569,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -603,13 +603,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -620,13 +620,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -637,13 +637,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -654,16 +654,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,13 +671,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -688,13 +688,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -702,16 +702,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -719,16 +719,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -736,16 +736,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
